--- a/Demo2.xlsx
+++ b/Demo2.xlsx
@@ -430,7 +430,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <f>SUM(B1:B4)</f>
+        <f>SUM(B2:B5)</f>
         <v>0</v>
       </c>
     </row>
